--- a/C1/originalFiles/manifestForShippingSamples_RLL_Urine.xlsx
+++ b/C1/originalFiles/manifestForShippingSamples_RLL_Urine.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jul/git/phenocare/fibers/C1/originalFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2D93FC-5987-DA4C-9D73-507BF92A1098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DE8280-4B92-B849-BB83-334AD83D72CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{93E0D738-5D03-D443-82FA-70C83708F820}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{93E0D738-5D03-D443-82FA-70C83708F820}"/>
   </bookViews>
   <sheets>
     <sheet name="sampleDescriptionList" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="604">
   <si>
     <t>sampleMatrixType</t>
   </si>
@@ -1722,9 +1722,6 @@
     <t>FIB123_U4_T8</t>
   </si>
   <si>
-    <t>FIB284_U1_T8</t>
-  </si>
-  <si>
     <t>FIB426_U4_T8</t>
   </si>
   <si>
@@ -1834,6 +1831,24 @@
   </si>
   <si>
     <t>9x9</t>
+  </si>
+  <si>
+    <t>FIB284_U4_T6</t>
+  </si>
+  <si>
+    <t>FIB284_U4_T4</t>
+  </si>
+  <si>
+    <t>FIB284_U4_T2</t>
+  </si>
+  <si>
+    <t>FIB150_U4_T8</t>
+  </si>
+  <si>
+    <t>FIB150_U4_T6</t>
+  </si>
+  <si>
+    <t>FIB284_U4_T8</t>
   </si>
 </sst>
 </file>
@@ -2393,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95CD998-A4B8-A946-AE75-4D76756CCDA9}">
   <dimension ref="A1:M432"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H256" sqref="H256:H432"/>
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="E390" sqref="E390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2458,7 +2473,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>43</v>
@@ -2473,7 +2488,7 @@
         <v>131</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I2" s="12">
         <v>1</v>
@@ -2484,7 +2499,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>44</v>
@@ -2499,7 +2514,7 @@
         <v>131</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I3" s="12">
         <v>2</v>
@@ -2510,7 +2525,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>45</v>
@@ -2525,7 +2540,7 @@
         <v>131</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I4" s="12">
         <v>3</v>
@@ -2536,7 +2551,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>46</v>
@@ -2551,7 +2566,7 @@
         <v>131</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I5" s="12">
         <v>4</v>
@@ -2562,7 +2577,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>47</v>
@@ -2577,7 +2592,7 @@
         <v>131</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I6" s="12">
         <v>5</v>
@@ -2588,7 +2603,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>48</v>
@@ -2603,7 +2618,7 @@
         <v>131</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I7" s="12">
         <v>6</v>
@@ -2614,7 +2629,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>49</v>
@@ -2629,7 +2644,7 @@
         <v>131</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I8" s="12">
         <v>7</v>
@@ -2640,7 +2655,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>50</v>
@@ -2655,7 +2670,7 @@
         <v>131</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I9" s="12">
         <v>8</v>
@@ -2666,7 +2681,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>51</v>
@@ -2681,7 +2696,7 @@
         <v>131</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I10" s="12">
         <v>9</v>
@@ -2692,7 +2707,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>52</v>
@@ -2707,7 +2722,7 @@
         <v>131</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I11" s="12">
         <v>10</v>
@@ -2718,7 +2733,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>53</v>
@@ -2733,7 +2748,7 @@
         <v>131</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I12" s="12">
         <v>11</v>
@@ -2744,7 +2759,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>54</v>
@@ -2759,7 +2774,7 @@
         <v>131</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I13" s="12">
         <v>12</v>
@@ -2770,7 +2785,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>55</v>
@@ -2785,7 +2800,7 @@
         <v>131</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I14" s="12">
         <v>13</v>
@@ -2796,7 +2811,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>56</v>
@@ -2811,7 +2826,7 @@
         <v>131</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I15" s="12">
         <v>14</v>
@@ -2822,7 +2837,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>57</v>
@@ -2837,7 +2852,7 @@
         <v>131</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I16" s="12">
         <v>15</v>
@@ -2848,7 +2863,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>58</v>
@@ -2863,7 +2878,7 @@
         <v>131</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I17" s="12">
         <v>16</v>
@@ -2874,7 +2889,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>59</v>
@@ -2889,7 +2904,7 @@
         <v>131</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I18" s="12">
         <v>17</v>
@@ -2900,7 +2915,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>60</v>
@@ -2915,7 +2930,7 @@
         <v>131</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I19" s="12">
         <v>18</v>
@@ -2926,7 +2941,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>61</v>
@@ -2941,7 +2956,7 @@
         <v>131</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I20" s="12">
         <v>19</v>
@@ -2952,7 +2967,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>62</v>
@@ -2967,7 +2982,7 @@
         <v>131</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I21" s="12">
         <v>20</v>
@@ -2978,7 +2993,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>63</v>
@@ -2993,7 +3008,7 @@
         <v>131</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I22" s="12">
         <v>31</v>
@@ -3004,7 +3019,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>64</v>
@@ -3019,7 +3034,7 @@
         <v>131</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I23" s="12">
         <v>32</v>
@@ -3030,7 +3045,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>65</v>
@@ -3045,7 +3060,7 @@
         <v>131</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I24" s="12">
         <v>33</v>
@@ -3056,7 +3071,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>66</v>
@@ -3071,7 +3086,7 @@
         <v>131</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I25" s="12">
         <v>34</v>
@@ -3082,7 +3097,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>67</v>
@@ -3097,7 +3112,7 @@
         <v>131</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I26" s="12">
         <v>35</v>
@@ -3108,7 +3123,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>68</v>
@@ -3123,7 +3138,7 @@
         <v>131</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I27" s="12">
         <v>36</v>
@@ -3134,7 +3149,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>69</v>
@@ -3149,7 +3164,7 @@
         <v>131</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I28" s="12">
         <v>37</v>
@@ -3160,7 +3175,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>70</v>
@@ -3175,7 +3190,7 @@
         <v>131</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I29" s="12">
         <v>38</v>
@@ -3186,7 +3201,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>71</v>
@@ -3201,7 +3216,7 @@
         <v>131</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I30" s="12">
         <v>39</v>
@@ -3212,7 +3227,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>72</v>
@@ -3227,7 +3242,7 @@
         <v>131</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I31" s="12">
         <v>40</v>
@@ -3238,7 +3253,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>73</v>
@@ -3253,7 +3268,7 @@
         <v>131</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I32" s="12">
         <v>41</v>
@@ -3264,7 +3279,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>74</v>
@@ -3279,7 +3294,7 @@
         <v>131</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I33" s="12">
         <v>42</v>
@@ -3290,7 +3305,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>75</v>
@@ -3305,7 +3320,7 @@
         <v>131</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I34" s="12">
         <v>43</v>
@@ -3316,7 +3331,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>76</v>
@@ -3331,7 +3346,7 @@
         <v>131</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I35" s="12">
         <v>44</v>
@@ -3342,7 +3357,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>77</v>
@@ -3357,7 +3372,7 @@
         <v>131</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I36" s="12">
         <v>45</v>
@@ -3368,7 +3383,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>78</v>
@@ -3383,7 +3398,7 @@
         <v>131</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I37" s="12">
         <v>46</v>
@@ -3394,7 +3409,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>79</v>
@@ -3409,7 +3424,7 @@
         <v>131</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I38" s="12">
         <v>47</v>
@@ -3420,7 +3435,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>80</v>
@@ -3435,7 +3450,7 @@
         <v>131</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I39" s="12">
         <v>48</v>
@@ -3446,7 +3461,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>81</v>
@@ -3461,7 +3476,7 @@
         <v>131</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I40" s="12">
         <v>49</v>
@@ -3472,7 +3487,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>82</v>
@@ -3487,7 +3502,7 @@
         <v>131</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I41" s="12">
         <v>50</v>
@@ -3498,7 +3513,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>83</v>
@@ -3513,7 +3528,7 @@
         <v>131</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I42" s="12">
         <v>51</v>
@@ -3524,7 +3539,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>84</v>
@@ -3539,7 +3554,7 @@
         <v>131</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I43" s="12">
         <v>52</v>
@@ -3550,7 +3565,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>85</v>
@@ -3565,7 +3580,7 @@
         <v>131</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I44" s="12">
         <v>53</v>
@@ -3576,7 +3591,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>86</v>
@@ -3591,7 +3606,7 @@
         <v>131</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I45" s="12">
         <v>54</v>
@@ -3602,7 +3617,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>87</v>
@@ -3617,7 +3632,7 @@
         <v>131</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I46" s="12">
         <v>55</v>
@@ -3628,7 +3643,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>88</v>
@@ -3643,7 +3658,7 @@
         <v>131</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I47" s="12">
         <v>56</v>
@@ -3654,7 +3669,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>89</v>
@@ -3669,7 +3684,7 @@
         <v>131</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I48" s="12">
         <v>57</v>
@@ -3680,7 +3695,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>90</v>
@@ -3695,7 +3710,7 @@
         <v>131</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I49" s="12">
         <v>58</v>
@@ -3706,7 +3721,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>91</v>
@@ -3721,7 +3736,7 @@
         <v>131</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I50" s="12">
         <v>59</v>
@@ -3732,7 +3747,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>92</v>
@@ -3747,7 +3762,7 @@
         <v>131</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I51" s="12">
         <v>60</v>
@@ -3758,7 +3773,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>93</v>
@@ -3773,7 +3788,7 @@
         <v>131</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I52" s="12">
         <v>61</v>
@@ -3784,7 +3799,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>94</v>
@@ -3799,7 +3814,7 @@
         <v>131</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I53" s="12">
         <v>62</v>
@@ -3810,7 +3825,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>95</v>
@@ -3825,7 +3840,7 @@
         <v>131</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I54" s="12">
         <v>63</v>
@@ -3836,7 +3851,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>96</v>
@@ -3851,7 +3866,7 @@
         <v>131</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I55" s="12">
         <v>64</v>
@@ -3862,7 +3877,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>97</v>
@@ -3877,7 +3892,7 @@
         <v>131</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I56" s="12">
         <v>65</v>
@@ -3888,7 +3903,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>98</v>
@@ -3903,7 +3918,7 @@
         <v>131</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I57" s="12">
         <v>66</v>
@@ -3914,7 +3929,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>99</v>
@@ -3929,7 +3944,7 @@
         <v>131</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I58" s="12">
         <v>67</v>
@@ -3940,7 +3955,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>100</v>
@@ -3955,7 +3970,7 @@
         <v>131</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I59" s="12">
         <v>68</v>
@@ -3966,7 +3981,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>101</v>
@@ -3981,7 +3996,7 @@
         <v>131</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I60" s="12">
         <v>69</v>
@@ -3992,7 +4007,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>102</v>
@@ -4007,7 +4022,7 @@
         <v>131</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I61" s="12">
         <v>70</v>
@@ -4018,7 +4033,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>103</v>
@@ -4033,7 +4048,7 @@
         <v>131</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I62" s="12">
         <v>71</v>
@@ -4044,7 +4059,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>104</v>
@@ -4059,7 +4074,7 @@
         <v>131</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I63" s="12">
         <v>72</v>
@@ -4070,7 +4085,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>105</v>
@@ -4085,7 +4100,7 @@
         <v>131</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I64" s="12">
         <v>73</v>
@@ -4096,7 +4111,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>106</v>
@@ -4111,7 +4126,7 @@
         <v>131</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I65" s="12">
         <v>74</v>
@@ -4122,7 +4137,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>107</v>
@@ -4137,7 +4152,7 @@
         <v>131</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I66" s="12">
         <v>75</v>
@@ -4148,7 +4163,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>108</v>
@@ -4163,7 +4178,7 @@
         <v>131</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I67" s="12">
         <v>76</v>
@@ -4174,7 +4189,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>109</v>
@@ -4189,7 +4204,7 @@
         <v>131</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I68" s="12">
         <v>77</v>
@@ -4200,7 +4215,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>110</v>
@@ -4215,7 +4230,7 @@
         <v>131</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I69" s="12">
         <v>78</v>
@@ -4226,7 +4241,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>111</v>
@@ -4241,7 +4256,7 @@
         <v>131</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I70" s="12">
         <v>79</v>
@@ -4252,7 +4267,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>112</v>
@@ -4267,7 +4282,7 @@
         <v>131</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I71" s="12">
         <v>84</v>
@@ -4278,7 +4293,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>113</v>
@@ -4293,7 +4308,7 @@
         <v>131</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I72" s="12">
         <v>80</v>
@@ -4304,7 +4319,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>114</v>
@@ -4319,7 +4334,7 @@
         <v>131</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I73" s="12">
         <v>82</v>
@@ -4330,7 +4345,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>115</v>
@@ -4345,7 +4360,7 @@
         <v>131</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I74" s="12">
         <v>81</v>
@@ -4356,7 +4371,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>116</v>
@@ -4371,7 +4386,7 @@
         <v>131</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I75" s="12">
         <v>83</v>
@@ -4382,7 +4397,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>117</v>
@@ -4397,7 +4412,7 @@
         <v>131</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I76" s="12">
         <v>85</v>
@@ -4408,7 +4423,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>118</v>
@@ -4423,7 +4438,7 @@
         <v>131</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I77" s="12">
         <v>86</v>
@@ -4434,7 +4449,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>119</v>
@@ -4449,7 +4464,7 @@
         <v>131</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I78" s="12">
         <v>88</v>
@@ -4460,7 +4475,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>120</v>
@@ -4475,7 +4490,7 @@
         <v>131</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I79" s="12">
         <v>87</v>
@@ -4486,7 +4501,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>121</v>
@@ -4501,7 +4516,7 @@
         <v>131</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I80" s="12">
         <v>89</v>
@@ -4512,7 +4527,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>122</v>
@@ -4527,7 +4542,7 @@
         <v>131</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I81" s="12">
         <v>90</v>
@@ -4538,7 +4553,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>123</v>
@@ -4553,7 +4568,7 @@
         <v>131</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I82" s="12">
         <v>91</v>
@@ -4564,7 +4579,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>124</v>
@@ -4579,7 +4594,7 @@
         <v>131</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I83" s="12">
         <v>93</v>
@@ -4590,7 +4605,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>125</v>
@@ -4605,7 +4620,7 @@
         <v>131</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I84" s="12">
         <v>92</v>
@@ -4616,7 +4631,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>126</v>
@@ -4631,7 +4646,7 @@
         <v>131</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I85" s="12">
         <v>94</v>
@@ -4642,7 +4657,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>127</v>
@@ -4657,7 +4672,7 @@
         <v>131</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I86" s="12">
         <v>95</v>
@@ -4668,7 +4683,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>128</v>
@@ -4683,7 +4698,7 @@
         <v>131</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I87" s="12">
         <v>96</v>
@@ -4694,7 +4709,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>129</v>
@@ -4709,7 +4724,7 @@
         <v>131</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I88" s="12">
         <v>98</v>
@@ -4720,7 +4735,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>130</v>
@@ -4735,7 +4750,7 @@
         <v>131</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I89" s="12">
         <v>97</v>
@@ -4746,7 +4761,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>154</v>
@@ -4761,7 +4776,7 @@
         <v>262</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I90" s="12">
         <v>5</v>
@@ -4772,7 +4787,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>155</v>
@@ -4787,7 +4802,7 @@
         <v>262</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I91" s="12">
         <v>3</v>
@@ -4798,7 +4813,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>156</v>
@@ -4813,7 +4828,7 @@
         <v>262</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I92" s="12">
         <v>4</v>
@@ -4824,7 +4839,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>157</v>
@@ -4839,7 +4854,7 @@
         <v>262</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I93" s="12">
         <v>2</v>
@@ -4850,7 +4865,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>158</v>
@@ -4865,7 +4880,7 @@
         <v>262</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I94" s="12">
         <v>1</v>
@@ -4876,7 +4891,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>159</v>
@@ -4891,7 +4906,7 @@
         <v>262</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I95" s="12">
         <v>6</v>
@@ -4902,7 +4917,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>160</v>
@@ -4917,7 +4932,7 @@
         <v>262</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I96" s="12">
         <v>7</v>
@@ -4928,7 +4943,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>161</v>
@@ -4943,7 +4958,7 @@
         <v>262</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I97" s="12">
         <v>8</v>
@@ -4954,7 +4969,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>162</v>
@@ -4969,7 +4984,7 @@
         <v>262</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I98" s="12">
         <v>9</v>
@@ -4980,7 +4995,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>163</v>
@@ -4995,7 +5010,7 @@
         <v>262</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I99" s="12">
         <v>10</v>
@@ -5006,7 +5021,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>164</v>
@@ -5021,7 +5036,7 @@
         <v>262</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I100" s="12">
         <v>11</v>
@@ -5032,7 +5047,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>165</v>
@@ -5047,7 +5062,7 @@
         <v>262</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I101" s="12">
         <v>12</v>
@@ -5058,7 +5073,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>166</v>
@@ -5073,7 +5088,7 @@
         <v>262</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I102" s="12">
         <v>13</v>
@@ -5084,7 +5099,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>167</v>
@@ -5099,7 +5114,7 @@
         <v>262</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I103" s="12">
         <v>14</v>
@@ -5110,7 +5125,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>168</v>
@@ -5125,7 +5140,7 @@
         <v>262</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I104" s="12">
         <v>15</v>
@@ -5136,7 +5151,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>169</v>
@@ -5151,7 +5166,7 @@
         <v>262</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I105" s="12">
         <v>16</v>
@@ -5162,7 +5177,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>170</v>
@@ -5177,7 +5192,7 @@
         <v>262</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I106" s="12">
         <v>17</v>
@@ -5188,7 +5203,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>171</v>
@@ -5203,7 +5218,7 @@
         <v>262</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I107" s="12">
         <v>18</v>
@@ -5214,7 +5229,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>172</v>
@@ -5229,7 +5244,7 @@
         <v>262</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I108" s="12">
         <v>19</v>
@@ -5240,7 +5255,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>173</v>
@@ -5255,7 +5270,7 @@
         <v>262</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I109" s="12">
         <v>20</v>
@@ -5266,7 +5281,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C110" s="12" t="s">
         <v>174</v>
@@ -5281,7 +5296,7 @@
         <v>262</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I110" s="12">
         <v>21</v>
@@ -5292,7 +5307,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>175</v>
@@ -5307,7 +5322,7 @@
         <v>262</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I111" s="12">
         <v>22</v>
@@ -5318,7 +5333,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>176</v>
@@ -5333,7 +5348,7 @@
         <v>262</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I112" s="12">
         <v>23</v>
@@ -5344,7 +5359,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>177</v>
@@ -5359,7 +5374,7 @@
         <v>262</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I113" s="12">
         <v>24</v>
@@ -5370,7 +5385,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>178</v>
@@ -5385,7 +5400,7 @@
         <v>262</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I114" s="12">
         <v>25</v>
@@ -5396,7 +5411,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>179</v>
@@ -5411,7 +5426,7 @@
         <v>262</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I115" s="12">
         <v>26</v>
@@ -5422,7 +5437,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>180</v>
@@ -5437,7 +5452,7 @@
         <v>262</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I116" s="12">
         <v>27</v>
@@ -5448,7 +5463,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>181</v>
@@ -5463,7 +5478,7 @@
         <v>262</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I117" s="12">
         <v>28</v>
@@ -5474,7 +5489,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>182</v>
@@ -5489,7 +5504,7 @@
         <v>262</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I118" s="12">
         <v>29</v>
@@ -5500,7 +5515,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>183</v>
@@ -5515,7 +5530,7 @@
         <v>262</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I119" s="12">
         <v>30</v>
@@ -5526,7 +5541,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>184</v>
@@ -5541,7 +5556,7 @@
         <v>262</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I120" s="12">
         <v>31</v>
@@ -5552,7 +5567,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>185</v>
@@ -5567,7 +5582,7 @@
         <v>262</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I121" s="12">
         <v>32</v>
@@ -5578,7 +5593,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>186</v>
@@ -5593,7 +5608,7 @@
         <v>262</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I122" s="12">
         <v>33</v>
@@ -5604,7 +5619,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>187</v>
@@ -5619,7 +5634,7 @@
         <v>262</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I123" s="12">
         <v>34</v>
@@ -5630,7 +5645,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>188</v>
@@ -5645,7 +5660,7 @@
         <v>262</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I124" s="12">
         <v>35</v>
@@ -5656,7 +5671,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C125" s="15" t="s">
         <v>189</v>
@@ -5671,7 +5686,7 @@
         <v>262</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I125" s="12">
         <v>36</v>
@@ -5682,7 +5697,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C126" s="15" t="s">
         <v>190</v>
@@ -5697,7 +5712,7 @@
         <v>262</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I126" s="12">
         <v>37</v>
@@ -5708,7 +5723,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C127" s="15" t="s">
         <v>191</v>
@@ -5723,7 +5738,7 @@
         <v>262</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I127" s="12">
         <v>38</v>
@@ -5734,7 +5749,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C128" s="15" t="s">
         <v>192</v>
@@ -5749,7 +5764,7 @@
         <v>262</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I128" s="12">
         <v>39</v>
@@ -5760,7 +5775,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C129" s="15" t="s">
         <v>193</v>
@@ -5775,7 +5790,7 @@
         <v>262</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I129" s="12">
         <v>40</v>
@@ -5786,7 +5801,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C130" s="15" t="s">
         <v>194</v>
@@ -5801,7 +5816,7 @@
         <v>262</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I130" s="12">
         <v>41</v>
@@ -5812,7 +5827,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C131" s="15" t="s">
         <v>195</v>
@@ -5827,7 +5842,7 @@
         <v>262</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I131" s="12">
         <v>42</v>
@@ -5838,7 +5853,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C132" s="15" t="s">
         <v>196</v>
@@ -5853,7 +5868,7 @@
         <v>262</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I132" s="12">
         <v>43</v>
@@ -5864,7 +5879,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>197</v>
@@ -5879,7 +5894,7 @@
         <v>262</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I133" s="12">
         <v>44</v>
@@ -5890,7 +5905,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>198</v>
@@ -5905,7 +5920,7 @@
         <v>262</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I134" s="12">
         <v>45</v>
@@ -5916,7 +5931,7 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C135" s="12" t="s">
         <v>199</v>
@@ -5931,7 +5946,7 @@
         <v>262</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I135" s="12">
         <v>61</v>
@@ -5942,7 +5957,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>200</v>
@@ -5957,7 +5972,7 @@
         <v>262</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I136" s="12">
         <v>62</v>
@@ -5968,7 +5983,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>201</v>
@@ -5983,7 +5998,7 @@
         <v>262</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I137" s="12">
         <v>63</v>
@@ -5994,7 +6009,7 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>202</v>
@@ -6009,7 +6024,7 @@
         <v>262</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I138" s="12">
         <v>64</v>
@@ -6020,7 +6035,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>203</v>
@@ -6035,7 +6050,7 @@
         <v>262</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I139" s="12">
         <v>65</v>
@@ -6046,7 +6061,7 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C140" s="12" t="s">
         <v>204</v>
@@ -6061,7 +6076,7 @@
         <v>262</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I140" s="12">
         <v>66</v>
@@ -6072,7 +6087,7 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C141" s="12" t="s">
         <v>205</v>
@@ -6087,7 +6102,7 @@
         <v>262</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I141" s="12">
         <v>67</v>
@@ -6098,7 +6113,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C142" s="12" t="s">
         <v>206</v>
@@ -6113,7 +6128,7 @@
         <v>262</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I142" s="12">
         <v>68</v>
@@ -6124,7 +6139,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C143" s="12" t="s">
         <v>207</v>
@@ -6139,7 +6154,7 @@
         <v>262</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I143" s="12">
         <v>69</v>
@@ -6150,7 +6165,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>208</v>
@@ -6165,7 +6180,7 @@
         <v>262</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I144" s="12">
         <v>70</v>
@@ -6176,7 +6191,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C145" s="12" t="s">
         <v>209</v>
@@ -6191,7 +6206,7 @@
         <v>262</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I145" s="12">
         <v>71</v>
@@ -6202,7 +6217,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C146" s="12" t="s">
         <v>210</v>
@@ -6217,7 +6232,7 @@
         <v>262</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I146" s="12">
         <v>72</v>
@@ -6228,7 +6243,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C147" s="12" t="s">
         <v>211</v>
@@ -6243,7 +6258,7 @@
         <v>262</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I147" s="12">
         <v>73</v>
@@ -6254,7 +6269,7 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C148" s="12" t="s">
         <v>212</v>
@@ -6269,7 +6284,7 @@
         <v>262</v>
       </c>
       <c r="H148" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I148" s="12">
         <v>74</v>
@@ -6280,7 +6295,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C149" s="12" t="s">
         <v>213</v>
@@ -6295,7 +6310,7 @@
         <v>262</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I149" s="12">
         <v>75</v>
@@ -6306,7 +6321,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C150" s="12" t="s">
         <v>214</v>
@@ -6321,7 +6336,7 @@
         <v>262</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I150" s="12">
         <v>76</v>
@@ -6332,7 +6347,7 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C151" s="12" t="s">
         <v>215</v>
@@ -6347,7 +6362,7 @@
         <v>262</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I151" s="12">
         <v>77</v>
@@ -6358,7 +6373,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C152" s="12" t="s">
         <v>216</v>
@@ -6373,7 +6388,7 @@
         <v>262</v>
       </c>
       <c r="H152" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I152" s="12">
         <v>78</v>
@@ -6384,7 +6399,7 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C153" s="12" t="s">
         <v>217</v>
@@ -6399,7 +6414,7 @@
         <v>262</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I153" s="12">
         <v>79</v>
@@ -6410,7 +6425,7 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C154" s="12" t="s">
         <v>218</v>
@@ -6425,7 +6440,7 @@
         <v>262</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I154" s="12">
         <v>80</v>
@@ -6436,7 +6451,7 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>219</v>
@@ -6451,7 +6466,7 @@
         <v>262</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I155" s="12">
         <v>81</v>
@@ -6462,7 +6477,7 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C156" s="12" t="s">
         <v>220</v>
@@ -6477,7 +6492,7 @@
         <v>262</v>
       </c>
       <c r="H156" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I156" s="12">
         <v>82</v>
@@ -6488,7 +6503,7 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C157" s="12" t="s">
         <v>221</v>
@@ -6503,7 +6518,7 @@
         <v>262</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I157" s="12">
         <v>83</v>
@@ -6514,7 +6529,7 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C158" s="12" t="s">
         <v>222</v>
@@ -6529,7 +6544,7 @@
         <v>262</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I158" s="12">
         <v>84</v>
@@ -6540,7 +6555,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C159" s="12" t="s">
         <v>223</v>
@@ -6555,7 +6570,7 @@
         <v>262</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I159" s="12">
         <v>85</v>
@@ -6566,7 +6581,7 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C160" s="12" t="s">
         <v>224</v>
@@ -6581,7 +6596,7 @@
         <v>262</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I160" s="12">
         <v>86</v>
@@ -6592,7 +6607,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C161" s="12" t="s">
         <v>225</v>
@@ -6607,7 +6622,7 @@
         <v>262</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I161" s="12">
         <v>87</v>
@@ -6618,7 +6633,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C162" s="12" t="s">
         <v>226</v>
@@ -6633,7 +6648,7 @@
         <v>262</v>
       </c>
       <c r="H162" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I162" s="12">
         <v>88</v>
@@ -6644,7 +6659,7 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C163" s="12" t="s">
         <v>227</v>
@@ -6659,7 +6674,7 @@
         <v>262</v>
       </c>
       <c r="H163" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I163" s="12">
         <v>89</v>
@@ -6670,7 +6685,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C164" s="12" t="s">
         <v>228</v>
@@ -6685,7 +6700,7 @@
         <v>262</v>
       </c>
       <c r="H164" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I164" s="12">
         <v>90</v>
@@ -6696,7 +6711,7 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C165" s="12" t="s">
         <v>229</v>
@@ -6711,7 +6726,7 @@
         <v>262</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I165" s="12">
         <v>91</v>
@@ -6722,7 +6737,7 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C166" s="12" t="s">
         <v>230</v>
@@ -6737,7 +6752,7 @@
         <v>262</v>
       </c>
       <c r="H166" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I166" s="12">
         <v>92</v>
@@ -6748,7 +6763,7 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C167" s="12" t="s">
         <v>231</v>
@@ -6763,7 +6778,7 @@
         <v>262</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I167" s="12">
         <v>93</v>
@@ -6774,7 +6789,7 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C168" s="12" t="s">
         <v>232</v>
@@ -6789,7 +6804,7 @@
         <v>262</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I168" s="12">
         <v>94</v>
@@ -6800,7 +6815,7 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C169" s="12" t="s">
         <v>233</v>
@@ -6815,7 +6830,7 @@
         <v>262</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I169" s="12">
         <v>95</v>
@@ -6826,7 +6841,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C170" s="12" t="s">
         <v>234</v>
@@ -6841,7 +6856,7 @@
         <v>262</v>
       </c>
       <c r="H170" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I170" s="12">
         <v>96</v>
@@ -6852,7 +6867,7 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C171" s="12" t="s">
         <v>235</v>
@@ -6867,7 +6882,7 @@
         <v>262</v>
       </c>
       <c r="H171" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I171" s="12">
         <v>97</v>
@@ -6878,7 +6893,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C172" s="12" t="s">
         <v>236</v>
@@ -6893,7 +6908,7 @@
         <v>262</v>
       </c>
       <c r="H172" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I172" s="12">
         <v>98</v>
@@ -6904,7 +6919,7 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C173" s="12" t="s">
         <v>237</v>
@@ -6919,7 +6934,7 @@
         <v>262</v>
       </c>
       <c r="H173" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I173" s="12">
         <v>99</v>
@@ -6930,7 +6945,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C174" s="12" t="s">
         <v>238</v>
@@ -6945,7 +6960,7 @@
         <v>262</v>
       </c>
       <c r="H174" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I174" s="12">
         <v>100</v>
@@ -6956,7 +6971,7 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C175" s="12" t="s">
         <v>239</v>
@@ -6971,7 +6986,7 @@
         <v>262</v>
       </c>
       <c r="H175" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I175" s="12">
         <v>46</v>
@@ -6982,7 +6997,7 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C176" s="12" t="s">
         <v>240</v>
@@ -6997,7 +7012,7 @@
         <v>262</v>
       </c>
       <c r="H176" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I176" s="12">
         <v>47</v>
@@ -7008,7 +7023,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C177" s="12" t="s">
         <v>241</v>
@@ -7023,7 +7038,7 @@
         <v>262</v>
       </c>
       <c r="H177" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I177" s="12">
         <v>49</v>
@@ -7034,7 +7049,7 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C178" s="12" t="s">
         <v>242</v>
@@ -7049,7 +7064,7 @@
         <v>262</v>
       </c>
       <c r="H178" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I178" s="12">
         <v>50</v>
@@ -7060,7 +7075,7 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C179" s="12" t="s">
         <v>243</v>
@@ -7075,7 +7090,7 @@
         <v>262</v>
       </c>
       <c r="H179" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I179" s="12">
         <v>52</v>
@@ -7086,7 +7101,7 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C180" s="12" t="s">
         <v>244</v>
@@ -7101,7 +7116,7 @@
         <v>262</v>
       </c>
       <c r="H180" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I180" s="12">
         <v>53</v>
@@ -7112,7 +7127,7 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C181" s="12" t="s">
         <v>245</v>
@@ -7127,7 +7142,7 @@
         <v>262</v>
       </c>
       <c r="H181" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I181" s="12">
         <v>56</v>
@@ -7138,7 +7153,7 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C182" s="12" t="s">
         <v>246</v>
@@ -7153,7 +7168,7 @@
         <v>262</v>
       </c>
       <c r="H182" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I182" s="12">
         <v>57</v>
@@ -7164,7 +7179,7 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C183" s="12" t="s">
         <v>247</v>
@@ -7179,7 +7194,7 @@
         <v>262</v>
       </c>
       <c r="H183" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I183" s="12">
         <v>58</v>
@@ -7190,7 +7205,7 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C184" s="12" t="s">
         <v>248</v>
@@ -7205,7 +7220,7 @@
         <v>262</v>
       </c>
       <c r="H184" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I184" s="12">
         <v>59</v>
@@ -7216,7 +7231,7 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C185" s="12" t="s">
         <v>263</v>
@@ -7231,7 +7246,7 @@
         <v>336</v>
       </c>
       <c r="H185" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I185" s="12" t="s">
         <v>30</v>
@@ -7242,7 +7257,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C186" s="12" t="s">
         <v>264</v>
@@ -7257,7 +7272,7 @@
         <v>336</v>
       </c>
       <c r="H186" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I186" s="12" t="s">
         <v>32</v>
@@ -7268,7 +7283,7 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C187" s="12" t="s">
         <v>265</v>
@@ -7283,7 +7298,7 @@
         <v>336</v>
       </c>
       <c r="H187" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I187" s="12" t="s">
         <v>337</v>
@@ -7294,7 +7309,7 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C188" s="12" t="s">
         <v>266</v>
@@ -7309,7 +7324,7 @@
         <v>336</v>
       </c>
       <c r="H188" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I188" s="12" t="s">
         <v>338</v>
@@ -7320,10 +7335,10 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>72</v>
+        <v>602</v>
       </c>
       <c r="D189" s="12" t="s">
         <v>143</v>
@@ -7335,18 +7350,18 @@
         <v>336</v>
       </c>
       <c r="H189" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I189" s="12" t="s">
         <v>339</v>
       </c>
       <c r="M189" s="12" t="s">
-        <v>152</v>
+        <v>260</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C190" s="12" t="s">
         <v>267</v>
@@ -7361,7 +7376,7 @@
         <v>336</v>
       </c>
       <c r="H190" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I190" s="12" t="s">
         <v>340</v>
@@ -7372,7 +7387,7 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C191" s="12" t="s">
         <v>268</v>
@@ -7387,7 +7402,7 @@
         <v>336</v>
       </c>
       <c r="H191" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I191" s="12" t="s">
         <v>341</v>
@@ -7398,7 +7413,7 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C192" s="12" t="s">
         <v>269</v>
@@ -7413,7 +7428,7 @@
         <v>336</v>
       </c>
       <c r="H192" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I192" s="12" t="s">
         <v>342</v>
@@ -7424,7 +7439,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C193" s="12" t="s">
         <v>270</v>
@@ -7439,7 +7454,7 @@
         <v>336</v>
       </c>
       <c r="H193" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I193" s="12" t="s">
         <v>343</v>
@@ -7450,7 +7465,7 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C194" s="12" t="s">
         <v>271</v>
@@ -7465,7 +7480,7 @@
         <v>336</v>
       </c>
       <c r="H194" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I194" s="12" t="s">
         <v>344</v>
@@ -7476,7 +7491,7 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C195" s="12" t="s">
         <v>272</v>
@@ -7491,7 +7506,7 @@
         <v>336</v>
       </c>
       <c r="H195" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I195" s="12" t="s">
         <v>345</v>
@@ -7502,7 +7517,7 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C196" s="12" t="s">
         <v>273</v>
@@ -7517,7 +7532,7 @@
         <v>336</v>
       </c>
       <c r="H196" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I196" s="12" t="s">
         <v>346</v>
@@ -7528,7 +7543,7 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C197" s="12" t="s">
         <v>274</v>
@@ -7543,7 +7558,7 @@
         <v>336</v>
       </c>
       <c r="H197" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I197" s="12" t="s">
         <v>347</v>
@@ -7554,10 +7569,10 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>76</v>
+        <v>601</v>
       </c>
       <c r="D198" s="12" t="s">
         <v>143</v>
@@ -7569,18 +7584,18 @@
         <v>336</v>
       </c>
       <c r="H198" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I198" s="12" t="s">
         <v>348</v>
       </c>
       <c r="M198" s="12" t="s">
-        <v>152</v>
+        <v>260</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C199" s="12" t="s">
         <v>275</v>
@@ -7595,7 +7610,7 @@
         <v>336</v>
       </c>
       <c r="H199" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I199" s="12" t="s">
         <v>349</v>
@@ -7606,7 +7621,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C200" s="12" t="s">
         <v>276</v>
@@ -7621,7 +7636,7 @@
         <v>336</v>
       </c>
       <c r="H200" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I200" s="12" t="s">
         <v>350</v>
@@ -7632,7 +7647,7 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C201" s="12" t="s">
         <v>277</v>
@@ -7647,7 +7662,7 @@
         <v>336</v>
       </c>
       <c r="H201" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I201" s="12" t="s">
         <v>351</v>
@@ -7658,7 +7673,7 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C202" s="12" t="s">
         <v>278</v>
@@ -7673,7 +7688,7 @@
         <v>336</v>
       </c>
       <c r="H202" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I202" s="12" t="s">
         <v>352</v>
@@ -7684,7 +7699,7 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C203" s="12" t="s">
         <v>279</v>
@@ -7699,7 +7714,7 @@
         <v>336</v>
       </c>
       <c r="H203" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I203" s="12" t="s">
         <v>353</v>
@@ -7710,7 +7725,7 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C204" s="12" t="s">
         <v>280</v>
@@ -7725,7 +7740,7 @@
         <v>336</v>
       </c>
       <c r="H204" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I204" s="12" t="s">
         <v>354</v>
@@ -7736,7 +7751,7 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C205" s="12" t="s">
         <v>281</v>
@@ -7751,7 +7766,7 @@
         <v>336</v>
       </c>
       <c r="H205" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I205" s="12" t="s">
         <v>355</v>
@@ -7762,7 +7777,7 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C206" s="12" t="s">
         <v>282</v>
@@ -7777,7 +7792,7 @@
         <v>336</v>
       </c>
       <c r="H206" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I206" s="12" t="s">
         <v>356</v>
@@ -7788,7 +7803,7 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C207" s="12" t="s">
         <v>283</v>
@@ -7803,7 +7818,7 @@
         <v>336</v>
       </c>
       <c r="H207" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I207" s="12" t="s">
         <v>357</v>
@@ -7814,7 +7829,7 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C208" s="12" t="s">
         <v>284</v>
@@ -7829,7 +7844,7 @@
         <v>336</v>
       </c>
       <c r="H208" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I208" s="12" t="s">
         <v>358</v>
@@ -7840,7 +7855,7 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C209" s="12" t="s">
         <v>285</v>
@@ -7855,7 +7870,7 @@
         <v>336</v>
       </c>
       <c r="H209" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I209" s="12" t="s">
         <v>359</v>
@@ -7866,7 +7881,7 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C210" s="12" t="s">
         <v>286</v>
@@ -7881,7 +7896,7 @@
         <v>336</v>
       </c>
       <c r="H210" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I210" s="12" t="s">
         <v>360</v>
@@ -7892,7 +7907,7 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C211" s="12" t="s">
         <v>287</v>
@@ -7907,7 +7922,7 @@
         <v>336</v>
       </c>
       <c r="H211" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I211" s="12" t="s">
         <v>361</v>
@@ -7918,7 +7933,7 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C212" s="12" t="s">
         <v>288</v>
@@ -7933,7 +7948,7 @@
         <v>336</v>
       </c>
       <c r="H212" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I212" s="12" t="s">
         <v>362</v>
@@ -7944,7 +7959,7 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C213" s="12" t="s">
         <v>289</v>
@@ -7959,7 +7974,7 @@
         <v>336</v>
       </c>
       <c r="H213" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I213" s="12" t="s">
         <v>363</v>
@@ -7970,7 +7985,7 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C214" s="12" t="s">
         <v>290</v>
@@ -7985,7 +8000,7 @@
         <v>336</v>
       </c>
       <c r="H214" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I214" s="12" t="s">
         <v>364</v>
@@ -7996,7 +8011,7 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C215" s="12" t="s">
         <v>291</v>
@@ -8011,7 +8026,7 @@
         <v>336</v>
       </c>
       <c r="H215" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I215" s="12" t="s">
         <v>365</v>
@@ -8022,7 +8037,7 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C216" s="12" t="s">
         <v>292</v>
@@ -8037,7 +8052,7 @@
         <v>336</v>
       </c>
       <c r="H216" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I216" s="12" t="s">
         <v>366</v>
@@ -8048,7 +8063,7 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C217" s="12" t="s">
         <v>293</v>
@@ -8063,7 +8078,7 @@
         <v>336</v>
       </c>
       <c r="H217" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I217" s="12" t="s">
         <v>367</v>
@@ -8074,7 +8089,7 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C218" s="12" t="s">
         <v>294</v>
@@ -8089,7 +8104,7 @@
         <v>336</v>
       </c>
       <c r="H218" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I218" s="12" t="s">
         <v>368</v>
@@ -8100,7 +8115,7 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C219" s="12" t="s">
         <v>295</v>
@@ -8115,7 +8130,7 @@
         <v>336</v>
       </c>
       <c r="H219" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I219" s="12" t="s">
         <v>369</v>
@@ -8126,7 +8141,7 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C220" s="12" t="s">
         <v>296</v>
@@ -8141,7 +8156,7 @@
         <v>336</v>
       </c>
       <c r="H220" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I220" s="12" t="s">
         <v>370</v>
@@ -8152,7 +8167,7 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C221" s="12" t="s">
         <v>297</v>
@@ -8167,7 +8182,7 @@
         <v>336</v>
       </c>
       <c r="H221" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I221" s="12" t="s">
         <v>371</v>
@@ -8178,7 +8193,7 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C222" s="12" t="s">
         <v>298</v>
@@ -8193,7 +8208,7 @@
         <v>336</v>
       </c>
       <c r="H222" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I222" s="12" t="s">
         <v>372</v>
@@ -8204,7 +8219,7 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C223" s="12" t="s">
         <v>299</v>
@@ -8219,7 +8234,7 @@
         <v>336</v>
       </c>
       <c r="H223" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I223" s="12" t="s">
         <v>373</v>
@@ -8230,7 +8245,7 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C224" s="12" t="s">
         <v>300</v>
@@ -8245,7 +8260,7 @@
         <v>336</v>
       </c>
       <c r="H224" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I224" s="12" t="s">
         <v>374</v>
@@ -8256,7 +8271,7 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C225" s="12" t="s">
         <v>301</v>
@@ -8271,7 +8286,7 @@
         <v>336</v>
       </c>
       <c r="H225" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I225" s="12" t="s">
         <v>375</v>
@@ -8282,7 +8297,7 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C226" s="12" t="s">
         <v>302</v>
@@ -8297,7 +8312,7 @@
         <v>336</v>
       </c>
       <c r="H226" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I226" s="12" t="s">
         <v>376</v>
@@ -8308,7 +8323,7 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C227" s="12" t="s">
         <v>303</v>
@@ -8323,7 +8338,7 @@
         <v>336</v>
       </c>
       <c r="H227" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I227" s="12" t="s">
         <v>377</v>
@@ -8334,7 +8349,7 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C228" s="12" t="s">
         <v>304</v>
@@ -8349,7 +8364,7 @@
         <v>336</v>
       </c>
       <c r="H228" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I228" s="12" t="s">
         <v>378</v>
@@ -8360,7 +8375,7 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C229" s="12" t="s">
         <v>305</v>
@@ -8375,7 +8390,7 @@
         <v>336</v>
       </c>
       <c r="H229" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I229" s="12" t="s">
         <v>379</v>
@@ -8386,7 +8401,7 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C230" s="12" t="s">
         <v>306</v>
@@ -8401,7 +8416,7 @@
         <v>336</v>
       </c>
       <c r="H230" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I230" s="12" t="s">
         <v>380</v>
@@ -8412,7 +8427,7 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C231" s="12" t="s">
         <v>307</v>
@@ -8427,7 +8442,7 @@
         <v>336</v>
       </c>
       <c r="H231" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I231" s="12" t="s">
         <v>381</v>
@@ -8438,7 +8453,7 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C232" s="12" t="s">
         <v>308</v>
@@ -8453,7 +8468,7 @@
         <v>336</v>
       </c>
       <c r="H232" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I232" s="12" t="s">
         <v>382</v>
@@ -8464,7 +8479,7 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C233" s="12" t="s">
         <v>309</v>
@@ -8479,7 +8494,7 @@
         <v>336</v>
       </c>
       <c r="H233" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I233" s="12" t="s">
         <v>383</v>
@@ -8490,7 +8505,7 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C234" s="12" t="s">
         <v>310</v>
@@ -8505,7 +8520,7 @@
         <v>336</v>
       </c>
       <c r="H234" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I234" s="12" t="s">
         <v>384</v>
@@ -8516,7 +8531,7 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C235" s="12" t="s">
         <v>311</v>
@@ -8531,7 +8546,7 @@
         <v>336</v>
       </c>
       <c r="H235" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I235" s="12" t="s">
         <v>385</v>
@@ -8542,7 +8557,7 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C236" s="12" t="s">
         <v>312</v>
@@ -8557,7 +8572,7 @@
         <v>336</v>
       </c>
       <c r="H236" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I236" s="12" t="s">
         <v>386</v>
@@ -8568,7 +8583,7 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C237" s="12" t="s">
         <v>313</v>
@@ -8583,7 +8598,7 @@
         <v>336</v>
       </c>
       <c r="H237" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I237" s="12" t="s">
         <v>387</v>
@@ -8594,7 +8609,7 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C238" s="12" t="s">
         <v>314</v>
@@ -8609,7 +8624,7 @@
         <v>336</v>
       </c>
       <c r="H238" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I238" s="12" t="s">
         <v>388</v>
@@ -8620,7 +8635,7 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C239" s="12" t="s">
         <v>315</v>
@@ -8635,7 +8650,7 @@
         <v>336</v>
       </c>
       <c r="H239" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I239" s="12" t="s">
         <v>389</v>
@@ -8646,7 +8661,7 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C240" s="12" t="s">
         <v>316</v>
@@ -8661,7 +8676,7 @@
         <v>336</v>
       </c>
       <c r="H240" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I240" s="12" t="s">
         <v>390</v>
@@ -8672,7 +8687,7 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C241" s="12" t="s">
         <v>317</v>
@@ -8687,7 +8702,7 @@
         <v>336</v>
       </c>
       <c r="H241" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I241" s="12" t="s">
         <v>391</v>
@@ -8698,7 +8713,7 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C242" s="12" t="s">
         <v>318</v>
@@ -8713,7 +8728,7 @@
         <v>336</v>
       </c>
       <c r="H242" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I242" s="12" t="s">
         <v>392</v>
@@ -8724,7 +8739,7 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C243" s="12" t="s">
         <v>319</v>
@@ -8739,7 +8754,7 @@
         <v>336</v>
       </c>
       <c r="H243" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I243" s="12" t="s">
         <v>393</v>
@@ -8750,7 +8765,7 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C244" s="12" t="s">
         <v>320</v>
@@ -8765,7 +8780,7 @@
         <v>336</v>
       </c>
       <c r="H244" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I244" s="12" t="s">
         <v>394</v>
@@ -8776,7 +8791,7 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C245" s="12" t="s">
         <v>321</v>
@@ -8791,7 +8806,7 @@
         <v>336</v>
       </c>
       <c r="H245" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I245" s="12" t="s">
         <v>395</v>
@@ -8802,7 +8817,7 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C246" s="12" t="s">
         <v>322</v>
@@ -8817,7 +8832,7 @@
         <v>336</v>
       </c>
       <c r="H246" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I246" s="12" t="s">
         <v>396</v>
@@ -8828,7 +8843,7 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C247" s="12" t="s">
         <v>323</v>
@@ -8843,7 +8858,7 @@
         <v>336</v>
       </c>
       <c r="H247" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I247" s="12" t="s">
         <v>397</v>
@@ -8854,7 +8869,7 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C248" s="12" t="s">
         <v>324</v>
@@ -8869,7 +8884,7 @@
         <v>336</v>
       </c>
       <c r="H248" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I248" s="12" t="s">
         <v>398</v>
@@ -8880,7 +8895,7 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C249" s="12" t="s">
         <v>325</v>
@@ -8895,7 +8910,7 @@
         <v>336</v>
       </c>
       <c r="H249" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I249" s="12" t="s">
         <v>399</v>
@@ -8906,7 +8921,7 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C250" s="12" t="s">
         <v>326</v>
@@ -8921,7 +8936,7 @@
         <v>336</v>
       </c>
       <c r="H250" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I250" s="12" t="s">
         <v>400</v>
@@ -8932,7 +8947,7 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C251" s="12" t="s">
         <v>327</v>
@@ -8947,7 +8962,7 @@
         <v>336</v>
       </c>
       <c r="H251" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I251" s="12" t="s">
         <v>401</v>
@@ -8958,7 +8973,7 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C252" s="12" t="s">
         <v>328</v>
@@ -8973,7 +8988,7 @@
         <v>336</v>
       </c>
       <c r="H252" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I252" s="12" t="s">
         <v>402</v>
@@ -8984,7 +8999,7 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C253" s="12" t="s">
         <v>329</v>
@@ -8999,7 +9014,7 @@
         <v>336</v>
       </c>
       <c r="H253" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I253" s="12" t="s">
         <v>403</v>
@@ -9010,7 +9025,7 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C254" s="12" t="s">
         <v>330</v>
@@ -9025,7 +9040,7 @@
         <v>336</v>
       </c>
       <c r="H254" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I254" s="12" t="s">
         <v>404</v>
@@ -9036,7 +9051,7 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C255" s="12" t="s">
         <v>331</v>
@@ -9051,7 +9066,7 @@
         <v>336</v>
       </c>
       <c r="H255" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I255" s="12" t="s">
         <v>405</v>
@@ -9062,7 +9077,7 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C256" s="17" t="s">
         <v>406</v>
@@ -9077,7 +9092,7 @@
         <v>407</v>
       </c>
       <c r="H256" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I256" s="12">
         <v>1</v>
@@ -9088,7 +9103,7 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C257" s="17" t="s">
         <v>408</v>
@@ -9103,7 +9118,7 @@
         <v>407</v>
       </c>
       <c r="H257" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I257" s="12">
         <v>2</v>
@@ -9114,7 +9129,7 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C258" s="17" t="s">
         <v>409</v>
@@ -9129,7 +9144,7 @@
         <v>407</v>
       </c>
       <c r="H258" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I258" s="12">
         <v>3</v>
@@ -9140,7 +9155,7 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C259" s="17" t="s">
         <v>410</v>
@@ -9155,7 +9170,7 @@
         <v>407</v>
       </c>
       <c r="H259" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I259" s="12">
         <v>4</v>
@@ -9166,7 +9181,7 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C260" s="17" t="s">
         <v>411</v>
@@ -9181,7 +9196,7 @@
         <v>407</v>
       </c>
       <c r="H260" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I260" s="12">
         <v>5</v>
@@ -9192,7 +9207,7 @@
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C261" s="17" t="s">
         <v>412</v>
@@ -9207,7 +9222,7 @@
         <v>407</v>
       </c>
       <c r="H261" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I261" s="12">
         <v>6</v>
@@ -9218,7 +9233,7 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C262" s="17" t="s">
         <v>413</v>
@@ -9233,7 +9248,7 @@
         <v>407</v>
       </c>
       <c r="H262" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I262" s="12">
         <v>7</v>
@@ -9244,7 +9259,7 @@
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C263" s="17" t="s">
         <v>415</v>
@@ -9259,7 +9274,7 @@
         <v>407</v>
       </c>
       <c r="H263" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I263" s="12">
         <v>8</v>
@@ -9270,7 +9285,7 @@
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C264" s="17" t="s">
         <v>416</v>
@@ -9285,7 +9300,7 @@
         <v>407</v>
       </c>
       <c r="H264" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I264" s="12">
         <v>9</v>
@@ -9296,7 +9311,7 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C265" s="17" t="s">
         <v>417</v>
@@ -9311,7 +9326,7 @@
         <v>407</v>
       </c>
       <c r="H265" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I265" s="12">
         <v>10</v>
@@ -9322,7 +9337,7 @@
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C266" s="17" t="s">
         <v>418</v>
@@ -9337,7 +9352,7 @@
         <v>407</v>
       </c>
       <c r="H266" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I266" s="12">
         <v>11</v>
@@ -9348,7 +9363,7 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C267" s="17" t="s">
         <v>419</v>
@@ -9363,7 +9378,7 @@
         <v>407</v>
       </c>
       <c r="H267" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I267" s="12">
         <v>12</v>
@@ -9374,7 +9389,7 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C268" s="17" t="s">
         <v>420</v>
@@ -9389,7 +9404,7 @@
         <v>407</v>
       </c>
       <c r="H268" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I268" s="12">
         <v>13</v>
@@ -9400,7 +9415,7 @@
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C269" s="17" t="s">
         <v>421</v>
@@ -9415,7 +9430,7 @@
         <v>407</v>
       </c>
       <c r="H269" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I269" s="12">
         <v>14</v>
@@ -9426,7 +9441,7 @@
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C270" s="17" t="s">
         <v>422</v>
@@ -9441,7 +9456,7 @@
         <v>407</v>
       </c>
       <c r="H270" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I270" s="12">
         <v>15</v>
@@ -9452,7 +9467,7 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C271" s="17" t="s">
         <v>423</v>
@@ -9467,7 +9482,7 @@
         <v>407</v>
       </c>
       <c r="H271" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I271" s="12">
         <v>16</v>
@@ -9478,7 +9493,7 @@
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C272" s="17" t="s">
         <v>424</v>
@@ -9493,7 +9508,7 @@
         <v>407</v>
       </c>
       <c r="H272" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I272" s="12">
         <v>17</v>
@@ -9504,7 +9519,7 @@
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C273" s="17" t="s">
         <v>425</v>
@@ -9519,7 +9534,7 @@
         <v>407</v>
       </c>
       <c r="H273" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I273" s="12">
         <v>18</v>
@@ -9530,7 +9545,7 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C274" s="17" t="s">
         <v>427</v>
@@ -9545,7 +9560,7 @@
         <v>407</v>
       </c>
       <c r="H274" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I274" s="12">
         <v>19</v>
@@ -9556,7 +9571,7 @@
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C275" s="17" t="s">
         <v>429</v>
@@ -9571,7 +9586,7 @@
         <v>407</v>
       </c>
       <c r="H275" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I275" s="12">
         <v>22</v>
@@ -9582,7 +9597,7 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C276" s="17" t="s">
         <v>431</v>
@@ -9597,7 +9612,7 @@
         <v>407</v>
       </c>
       <c r="H276" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I276" s="12">
         <v>24</v>
@@ -9608,7 +9623,7 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C277" s="17" t="s">
         <v>432</v>
@@ -9623,7 +9638,7 @@
         <v>407</v>
       </c>
       <c r="H277" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I277" s="12">
         <v>26</v>
@@ -9634,7 +9649,7 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C278" s="17" t="s">
         <v>433</v>
@@ -9649,7 +9664,7 @@
         <v>407</v>
       </c>
       <c r="H278" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I278" s="12">
         <v>27</v>
@@ -9660,7 +9675,7 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C279" s="17" t="s">
         <v>434</v>
@@ -9675,7 +9690,7 @@
         <v>407</v>
       </c>
       <c r="H279" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I279" s="12">
         <v>28</v>
@@ -9686,7 +9701,7 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C280" s="17" t="s">
         <v>435</v>
@@ -9701,7 +9716,7 @@
         <v>407</v>
       </c>
       <c r="H280" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I280" s="12">
         <v>29</v>
@@ -9712,7 +9727,7 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C281" s="17" t="s">
         <v>436</v>
@@ -9727,7 +9742,7 @@
         <v>407</v>
       </c>
       <c r="H281" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I281" s="12">
         <v>30</v>
@@ -9738,7 +9753,7 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C282" s="17" t="s">
         <v>437</v>
@@ -9753,7 +9768,7 @@
         <v>407</v>
       </c>
       <c r="H282" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I282" s="12">
         <v>31</v>
@@ -9764,7 +9779,7 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C283" s="17" t="s">
         <v>438</v>
@@ -9779,7 +9794,7 @@
         <v>407</v>
       </c>
       <c r="H283" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I283" s="12">
         <v>32</v>
@@ -9790,7 +9805,7 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C284" s="17" t="s">
         <v>439</v>
@@ -9805,7 +9820,7 @@
         <v>407</v>
       </c>
       <c r="H284" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I284" s="12">
         <v>33</v>
@@ -9816,7 +9831,7 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C285" s="17" t="s">
         <v>440</v>
@@ -9831,7 +9846,7 @@
         <v>407</v>
       </c>
       <c r="H285" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I285" s="12">
         <v>34</v>
@@ -9842,7 +9857,7 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C286" s="17" t="s">
         <v>441</v>
@@ -9857,7 +9872,7 @@
         <v>407</v>
       </c>
       <c r="H286" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I286" s="12">
         <v>35</v>
@@ -9868,7 +9883,7 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C287" s="17" t="s">
         <v>442</v>
@@ -9883,7 +9898,7 @@
         <v>407</v>
       </c>
       <c r="H287" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I287" s="12">
         <v>36</v>
@@ -9894,7 +9909,7 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C288" s="17" t="s">
         <v>443</v>
@@ -9909,7 +9924,7 @@
         <v>407</v>
       </c>
       <c r="H288" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I288" s="12">
         <v>37</v>
@@ -9920,7 +9935,7 @@
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C289" s="17" t="s">
         <v>444</v>
@@ -9935,7 +9950,7 @@
         <v>407</v>
       </c>
       <c r="H289" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I289" s="12">
         <v>38</v>
@@ -9946,7 +9961,7 @@
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C290" s="17" t="s">
         <v>445</v>
@@ -9961,7 +9976,7 @@
         <v>407</v>
       </c>
       <c r="H290" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I290" s="12">
         <v>39</v>
@@ -9972,7 +9987,7 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C291" s="17" t="s">
         <v>446</v>
@@ -9987,7 +10002,7 @@
         <v>407</v>
       </c>
       <c r="H291" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I291" s="12">
         <v>40</v>
@@ -9998,7 +10013,7 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C292" s="17" t="s">
         <v>447</v>
@@ -10013,7 +10028,7 @@
         <v>407</v>
       </c>
       <c r="H292" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I292" s="12">
         <v>41</v>
@@ -10024,7 +10039,7 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C293" s="17" t="s">
         <v>448</v>
@@ -10039,7 +10054,7 @@
         <v>407</v>
       </c>
       <c r="H293" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I293" s="12">
         <v>42</v>
@@ -10050,7 +10065,7 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C294" s="17" t="s">
         <v>449</v>
@@ -10065,7 +10080,7 @@
         <v>407</v>
       </c>
       <c r="H294" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I294" s="12">
         <v>43</v>
@@ -10076,7 +10091,7 @@
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C295" s="17" t="s">
         <v>450</v>
@@ -10091,7 +10106,7 @@
         <v>407</v>
       </c>
       <c r="H295" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I295" s="12">
         <v>44</v>
@@ -10102,7 +10117,7 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C296" s="17" t="s">
         <v>452</v>
@@ -10117,7 +10132,7 @@
         <v>407</v>
       </c>
       <c r="H296" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I296" s="12">
         <v>45</v>
@@ -10128,7 +10143,7 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C297" s="17" t="s">
         <v>453</v>
@@ -10143,7 +10158,7 @@
         <v>407</v>
       </c>
       <c r="H297" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I297" s="12">
         <v>46</v>
@@ -10154,7 +10169,7 @@
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C298" s="17" t="s">
         <v>454</v>
@@ -10169,7 +10184,7 @@
         <v>407</v>
       </c>
       <c r="H298" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I298" s="12">
         <v>47</v>
@@ -10180,7 +10195,7 @@
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C299" s="17" t="s">
         <v>456</v>
@@ -10195,7 +10210,7 @@
         <v>407</v>
       </c>
       <c r="H299" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I299" s="12">
         <v>48</v>
@@ -10206,7 +10221,7 @@
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C300" s="17" t="s">
         <v>457</v>
@@ -10221,7 +10236,7 @@
         <v>407</v>
       </c>
       <c r="H300" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I300" s="12">
         <v>49</v>
@@ -10232,7 +10247,7 @@
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C301" s="17" t="s">
         <v>458</v>
@@ -10247,7 +10262,7 @@
         <v>407</v>
       </c>
       <c r="H301" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I301" s="12">
         <v>50</v>
@@ -10258,7 +10273,7 @@
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C302" s="17" t="s">
         <v>459</v>
@@ -10273,7 +10288,7 @@
         <v>407</v>
       </c>
       <c r="H302" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I302" s="12">
         <v>51</v>
@@ -10284,7 +10299,7 @@
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C303" s="17" t="s">
         <v>460</v>
@@ -10299,7 +10314,7 @@
         <v>407</v>
       </c>
       <c r="H303" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I303" s="12">
         <v>52</v>
@@ -10310,7 +10325,7 @@
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C304" s="17" t="s">
         <v>461</v>
@@ -10325,7 +10340,7 @@
         <v>407</v>
       </c>
       <c r="H304" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I304" s="12">
         <v>53</v>
@@ -10336,7 +10351,7 @@
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C305" s="17" t="s">
         <v>462</v>
@@ -10351,7 +10366,7 @@
         <v>407</v>
       </c>
       <c r="H305" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I305" s="12">
         <v>54</v>
@@ -10362,7 +10377,7 @@
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C306" s="17" t="s">
         <v>463</v>
@@ -10377,7 +10392,7 @@
         <v>407</v>
       </c>
       <c r="H306" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I306" s="12">
         <v>55</v>
@@ -10388,7 +10403,7 @@
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C307" s="17" t="s">
         <v>464</v>
@@ -10403,7 +10418,7 @@
         <v>407</v>
       </c>
       <c r="H307" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I307" s="12">
         <v>56</v>
@@ -10414,7 +10429,7 @@
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C308" s="17" t="s">
         <v>465</v>
@@ -10429,7 +10444,7 @@
         <v>407</v>
       </c>
       <c r="H308" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I308" s="12">
         <v>57</v>
@@ -10440,7 +10455,7 @@
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C309" s="17" t="s">
         <v>466</v>
@@ -10455,7 +10470,7 @@
         <v>407</v>
       </c>
       <c r="H309" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I309" s="12">
         <v>58</v>
@@ -10466,7 +10481,7 @@
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C310" s="17" t="s">
         <v>467</v>
@@ -10481,7 +10496,7 @@
         <v>407</v>
       </c>
       <c r="H310" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I310" s="12">
         <v>59</v>
@@ -10492,7 +10507,7 @@
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C311" s="17" t="s">
         <v>468</v>
@@ -10507,7 +10522,7 @@
         <v>407</v>
       </c>
       <c r="H311" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I311" s="12">
         <v>60</v>
@@ -10518,7 +10533,7 @@
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C312" s="17" t="s">
         <v>469</v>
@@ -10533,7 +10548,7 @@
         <v>407</v>
       </c>
       <c r="H312" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I312" s="12">
         <v>61</v>
@@ -10544,7 +10559,7 @@
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C313" s="17" t="s">
         <v>470</v>
@@ -10559,7 +10574,7 @@
         <v>407</v>
       </c>
       <c r="H313" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I313" s="12">
         <v>62</v>
@@ -10570,7 +10585,7 @@
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C314" s="17" t="s">
         <v>471</v>
@@ -10585,7 +10600,7 @@
         <v>407</v>
       </c>
       <c r="H314" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I314" s="12">
         <v>63</v>
@@ -10596,7 +10611,7 @@
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C315" s="17" t="s">
         <v>472</v>
@@ -10611,7 +10626,7 @@
         <v>407</v>
       </c>
       <c r="H315" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I315" s="12">
         <v>64</v>
@@ -10622,7 +10637,7 @@
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C316" s="17" t="s">
         <v>473</v>
@@ -10637,7 +10652,7 @@
         <v>407</v>
       </c>
       <c r="H316" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I316" s="12">
         <v>65</v>
@@ -10648,7 +10663,7 @@
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C317" s="17" t="s">
         <v>474</v>
@@ -10663,7 +10678,7 @@
         <v>407</v>
       </c>
       <c r="H317" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I317" s="12">
         <v>66</v>
@@ -10674,7 +10689,7 @@
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C318" s="17" t="s">
         <v>475</v>
@@ -10689,7 +10704,7 @@
         <v>407</v>
       </c>
       <c r="H318" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I318" s="12">
         <v>67</v>
@@ -10700,7 +10715,7 @@
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C319" s="17" t="s">
         <v>476</v>
@@ -10715,7 +10730,7 @@
         <v>407</v>
       </c>
       <c r="H319" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I319" s="12">
         <v>68</v>
@@ -10726,7 +10741,7 @@
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C320" s="17" t="s">
         <v>477</v>
@@ -10741,7 +10756,7 @@
         <v>407</v>
       </c>
       <c r="H320" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I320" s="12">
         <v>69</v>
@@ -10752,7 +10767,7 @@
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C321" s="17" t="s">
         <v>478</v>
@@ -10767,7 +10782,7 @@
         <v>407</v>
       </c>
       <c r="H321" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I321" s="12">
         <v>82</v>
@@ -10778,7 +10793,7 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C322" s="17" t="s">
         <v>479</v>
@@ -10793,7 +10808,7 @@
         <v>407</v>
       </c>
       <c r="H322" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I322" s="12">
         <v>83</v>
@@ -10804,7 +10819,7 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C323" s="17" t="s">
         <v>480</v>
@@ -10819,7 +10834,7 @@
         <v>407</v>
       </c>
       <c r="H323" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I323" s="12">
         <v>84</v>
@@ -10830,7 +10845,7 @@
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C324" s="17" t="s">
         <v>481</v>
@@ -10845,7 +10860,7 @@
         <v>407</v>
       </c>
       <c r="H324" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I324" s="12">
         <v>85</v>
@@ -10856,7 +10871,7 @@
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C325" s="17" t="s">
         <v>482</v>
@@ -10871,7 +10886,7 @@
         <v>407</v>
       </c>
       <c r="H325" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I325" s="12">
         <v>86</v>
@@ -10882,7 +10897,7 @@
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C326" s="17" t="s">
         <v>483</v>
@@ -10897,7 +10912,7 @@
         <v>407</v>
       </c>
       <c r="H326" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I326" s="12">
         <v>87</v>
@@ -10908,7 +10923,7 @@
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C327" s="17" t="s">
         <v>484</v>
@@ -10923,7 +10938,7 @@
         <v>407</v>
       </c>
       <c r="H327" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I327" s="12">
         <v>88</v>
@@ -10934,7 +10949,7 @@
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C328" s="17" t="s">
         <v>485</v>
@@ -10949,7 +10964,7 @@
         <v>407</v>
       </c>
       <c r="H328" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I328" s="12">
         <v>89</v>
@@ -10960,7 +10975,7 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C329" s="17" t="s">
         <v>486</v>
@@ -10975,7 +10990,7 @@
         <v>407</v>
       </c>
       <c r="H329" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I329" s="12">
         <v>90</v>
@@ -10986,7 +11001,7 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C330" s="17" t="s">
         <v>488</v>
@@ -11001,7 +11016,7 @@
         <v>407</v>
       </c>
       <c r="H330" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I330" s="12">
         <v>91</v>
@@ -11012,7 +11027,7 @@
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C331" s="17" t="s">
         <v>490</v>
@@ -11027,7 +11042,7 @@
         <v>407</v>
       </c>
       <c r="H331" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I331" s="12">
         <v>92</v>
@@ -11038,7 +11053,7 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C332" s="17" t="s">
         <v>491</v>
@@ -11053,7 +11068,7 @@
         <v>407</v>
       </c>
       <c r="H332" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I332" s="12">
         <v>93</v>
@@ -11064,7 +11079,7 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C333" s="17" t="s">
         <v>492</v>
@@ -11079,7 +11094,7 @@
         <v>407</v>
       </c>
       <c r="H333" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I333" s="12">
         <v>94</v>
@@ -11090,7 +11105,7 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C334" s="17" t="s">
         <v>493</v>
@@ -11105,7 +11120,7 @@
         <v>407</v>
       </c>
       <c r="H334" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I334" s="12">
         <v>95</v>
@@ -11116,7 +11131,7 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C335" s="17" t="s">
         <v>494</v>
@@ -11131,7 +11146,7 @@
         <v>407</v>
       </c>
       <c r="H335" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I335" s="12">
         <v>96</v>
@@ -11142,7 +11157,7 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C336" s="12" t="s">
         <v>495</v>
@@ -11154,10 +11169,10 @@
         <v>138</v>
       </c>
       <c r="G336" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H336" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I336" s="12">
         <v>1</v>
@@ -11168,7 +11183,7 @@
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C337" s="12" t="s">
         <v>496</v>
@@ -11180,10 +11195,10 @@
         <v>138</v>
       </c>
       <c r="G337" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H337" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I337" s="12">
         <v>2</v>
@@ -11194,7 +11209,7 @@
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C338" s="12" t="s">
         <v>497</v>
@@ -11206,10 +11221,10 @@
         <v>138</v>
       </c>
       <c r="G338" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H338" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I338" s="12">
         <v>3</v>
@@ -11220,7 +11235,7 @@
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C339" s="12" t="s">
         <v>498</v>
@@ -11232,10 +11247,10 @@
         <v>138</v>
       </c>
       <c r="G339" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H339" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I339" s="12">
         <v>4</v>
@@ -11246,7 +11261,7 @@
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C340" s="12" t="s">
         <v>499</v>
@@ -11258,10 +11273,10 @@
         <v>138</v>
       </c>
       <c r="G340" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H340" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I340" s="12">
         <v>5</v>
@@ -11272,7 +11287,7 @@
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C341" s="12" t="s">
         <v>500</v>
@@ -11284,10 +11299,10 @@
         <v>139</v>
       </c>
       <c r="G341" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H341" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I341" s="12">
         <v>6</v>
@@ -11298,7 +11313,7 @@
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C342" s="12" t="s">
         <v>501</v>
@@ -11310,10 +11325,10 @@
         <v>139</v>
       </c>
       <c r="G342" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H342" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I342" s="12">
         <v>7</v>
@@ -11324,7 +11339,7 @@
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C343" s="12" t="s">
         <v>502</v>
@@ -11336,10 +11351,10 @@
         <v>139</v>
       </c>
       <c r="G343" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H343" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I343" s="12">
         <v>8</v>
@@ -11350,7 +11365,7 @@
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C344" s="12" t="s">
         <v>503</v>
@@ -11362,10 +11377,10 @@
         <v>139</v>
       </c>
       <c r="G344" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H344" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I344" s="12">
         <v>9</v>
@@ -11376,7 +11391,7 @@
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C345" s="12" t="s">
         <v>504</v>
@@ -11388,10 +11403,10 @@
         <v>139</v>
       </c>
       <c r="G345" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H345" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I345" s="12">
         <v>10</v>
@@ -11402,7 +11417,7 @@
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C346" s="12" t="s">
         <v>505</v>
@@ -11414,10 +11429,10 @@
         <v>133</v>
       </c>
       <c r="G346" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H346" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I346" s="12">
         <v>11</v>
@@ -11428,7 +11443,7 @@
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C347" s="12" t="s">
         <v>506</v>
@@ -11440,10 +11455,10 @@
         <v>133</v>
       </c>
       <c r="G347" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H347" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I347" s="12">
         <v>12</v>
@@ -11454,7 +11469,7 @@
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C348" s="12" t="s">
         <v>507</v>
@@ -11466,10 +11481,10 @@
         <v>133</v>
       </c>
       <c r="G348" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H348" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I348" s="12">
         <v>13</v>
@@ -11480,7 +11495,7 @@
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C349" s="12" t="s">
         <v>508</v>
@@ -11492,10 +11507,10 @@
         <v>133</v>
       </c>
       <c r="G349" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H349" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I349" s="12">
         <v>14</v>
@@ -11506,7 +11521,7 @@
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C350" s="12" t="s">
         <v>509</v>
@@ -11518,10 +11533,10 @@
         <v>133</v>
       </c>
       <c r="G350" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H350" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I350" s="12">
         <v>15</v>
@@ -11532,7 +11547,7 @@
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C351" s="12" t="s">
         <v>510</v>
@@ -11544,10 +11559,10 @@
         <v>133</v>
       </c>
       <c r="G351" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H351" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I351" s="12">
         <v>16</v>
@@ -11558,7 +11573,7 @@
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C352" s="12" t="s">
         <v>511</v>
@@ -11570,10 +11585,10 @@
         <v>136</v>
       </c>
       <c r="G352" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H352" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I352" s="12">
         <v>17</v>
@@ -11584,7 +11599,7 @@
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C353" s="12" t="s">
         <v>512</v>
@@ -11596,10 +11611,10 @@
         <v>136</v>
       </c>
       <c r="G353" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H353" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I353" s="12">
         <v>18</v>
@@ -11610,7 +11625,7 @@
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C354" s="12" t="s">
         <v>513</v>
@@ -11622,10 +11637,10 @@
         <v>136</v>
       </c>
       <c r="G354" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H354" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I354" s="12">
         <v>19</v>
@@ -11636,7 +11651,7 @@
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C355" s="12" t="s">
         <v>514</v>
@@ -11648,10 +11663,10 @@
         <v>136</v>
       </c>
       <c r="G355" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H355" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I355" s="12">
         <v>20</v>
@@ -11662,7 +11677,7 @@
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C356" s="12" t="s">
         <v>515</v>
@@ -11674,10 +11689,10 @@
         <v>136</v>
       </c>
       <c r="G356" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H356" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I356" s="12">
         <v>21</v>
@@ -11688,7 +11703,7 @@
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C357" s="12" t="s">
         <v>516</v>
@@ -11700,10 +11715,10 @@
         <v>136</v>
       </c>
       <c r="G357" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H357" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I357" s="12">
         <v>22</v>
@@ -11714,7 +11729,7 @@
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C358" s="12" t="s">
         <v>517</v>
@@ -11726,10 +11741,10 @@
         <v>137</v>
       </c>
       <c r="G358" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H358" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I358" s="12">
         <v>23</v>
@@ -11740,7 +11755,7 @@
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C359" s="12" t="s">
         <v>518</v>
@@ -11752,10 +11767,10 @@
         <v>137</v>
       </c>
       <c r="G359" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H359" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I359" s="12">
         <v>24</v>
@@ -11766,7 +11781,7 @@
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C360" s="12" t="s">
         <v>519</v>
@@ -11778,10 +11793,10 @@
         <v>137</v>
       </c>
       <c r="G360" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H360" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I360" s="12">
         <v>25</v>
@@ -11792,7 +11807,7 @@
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C361" s="12" t="s">
         <v>520</v>
@@ -11804,10 +11819,10 @@
         <v>137</v>
       </c>
       <c r="G361" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H361" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I361" s="12">
         <v>26</v>
@@ -11818,7 +11833,7 @@
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C362" s="12" t="s">
         <v>521</v>
@@ -11830,10 +11845,10 @@
         <v>137</v>
       </c>
       <c r="G362" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H362" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I362" s="12">
         <v>27</v>
@@ -11844,7 +11859,7 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C363" s="12" t="s">
         <v>522</v>
@@ -11856,10 +11871,10 @@
         <v>137</v>
       </c>
       <c r="G363" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H363" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I363" s="12">
         <v>28</v>
@@ -11870,7 +11885,7 @@
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C364" s="12" t="s">
         <v>523</v>
@@ -11882,10 +11897,10 @@
         <v>138</v>
       </c>
       <c r="G364" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H364" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I364" s="12">
         <v>29</v>
@@ -11896,7 +11911,7 @@
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C365" s="12" t="s">
         <v>524</v>
@@ -11908,10 +11923,10 @@
         <v>138</v>
       </c>
       <c r="G365" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H365" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I365" s="12">
         <v>30</v>
@@ -11922,7 +11937,7 @@
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C366" s="12" t="s">
         <v>525</v>
@@ -11934,10 +11949,10 @@
         <v>138</v>
       </c>
       <c r="G366" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H366" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I366" s="12">
         <v>43</v>
@@ -11948,7 +11963,7 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C367" s="12" t="s">
         <v>526</v>
@@ -11960,10 +11975,10 @@
         <v>138</v>
       </c>
       <c r="G367" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H367" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I367" s="12">
         <v>44</v>
@@ -11974,7 +11989,7 @@
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C368" s="12" t="s">
         <v>527</v>
@@ -11986,10 +12001,10 @@
         <v>138</v>
       </c>
       <c r="G368" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H368" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I368" s="12">
         <v>45</v>
@@ -12000,7 +12015,7 @@
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C369" s="12" t="s">
         <v>528</v>
@@ -12012,10 +12027,10 @@
         <v>138</v>
       </c>
       <c r="G369" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H369" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I369" s="12">
         <v>46</v>
@@ -12026,7 +12041,7 @@
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C370" s="12" t="s">
         <v>529</v>
@@ -12038,10 +12053,10 @@
         <v>139</v>
       </c>
       <c r="G370" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H370" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I370" s="12">
         <v>47</v>
@@ -12052,7 +12067,7 @@
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C371" s="12" t="s">
         <v>530</v>
@@ -12064,10 +12079,10 @@
         <v>139</v>
       </c>
       <c r="G371" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H371" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I371" s="12">
         <v>48</v>
@@ -12078,7 +12093,7 @@
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C372" s="12" t="s">
         <v>531</v>
@@ -12090,10 +12105,10 @@
         <v>139</v>
       </c>
       <c r="G372" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H372" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I372" s="12">
         <v>49</v>
@@ -12104,7 +12119,7 @@
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C373" s="12" t="s">
         <v>532</v>
@@ -12116,10 +12131,10 @@
         <v>139</v>
       </c>
       <c r="G373" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H373" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I373" s="12">
         <v>50</v>
@@ -12130,7 +12145,7 @@
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C374" s="12" t="s">
         <v>533</v>
@@ -12142,10 +12157,10 @@
         <v>139</v>
       </c>
       <c r="G374" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H374" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I374" s="12">
         <v>51</v>
@@ -12156,7 +12171,7 @@
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C375" s="12" t="s">
         <v>534</v>
@@ -12168,10 +12183,10 @@
         <v>139</v>
       </c>
       <c r="G375" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H375" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I375" s="12">
         <v>52</v>
@@ -12182,7 +12197,7 @@
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C376" s="12" t="s">
         <v>535</v>
@@ -12194,10 +12209,10 @@
         <v>133</v>
       </c>
       <c r="G376" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H376" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I376" s="12">
         <v>53</v>
@@ -12208,7 +12223,7 @@
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C377" s="12" t="s">
         <v>536</v>
@@ -12220,10 +12235,10 @@
         <v>136</v>
       </c>
       <c r="G377" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H377" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I377" s="12">
         <v>54</v>
@@ -12234,7 +12249,7 @@
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C378" s="12" t="s">
         <v>537</v>
@@ -12246,10 +12261,10 @@
         <v>137</v>
       </c>
       <c r="G378" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H378" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I378" s="12">
         <v>55</v>
@@ -12260,7 +12275,7 @@
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C379" s="12" t="s">
         <v>538</v>
@@ -12272,10 +12287,10 @@
         <v>138</v>
       </c>
       <c r="G379" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H379" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I379" s="12">
         <v>56</v>
@@ -12286,7 +12301,7 @@
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C380" s="12" t="s">
         <v>539</v>
@@ -12298,10 +12313,10 @@
         <v>139</v>
       </c>
       <c r="G380" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H380" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I380" s="12">
         <v>57</v>
@@ -12312,7 +12327,7 @@
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C381" s="12" t="s">
         <v>540</v>
@@ -12324,10 +12339,10 @@
         <v>133</v>
       </c>
       <c r="G381" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H381" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I381" s="12">
         <v>58</v>
@@ -12338,7 +12353,7 @@
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C382" s="12" t="s">
         <v>541</v>
@@ -12350,10 +12365,10 @@
         <v>133</v>
       </c>
       <c r="G382" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H382" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I382" s="12">
         <v>59</v>
@@ -12364,7 +12379,7 @@
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C383" s="12" t="s">
         <v>542</v>
@@ -12376,10 +12391,10 @@
         <v>133</v>
       </c>
       <c r="G383" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H383" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I383" s="12">
         <v>60</v>
@@ -12390,7 +12405,7 @@
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C384" s="12" t="s">
         <v>544</v>
@@ -12402,10 +12417,10 @@
         <v>133</v>
       </c>
       <c r="G384" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H384" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I384" s="12">
         <v>62</v>
@@ -12416,7 +12431,7 @@
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C385" s="12" t="s">
         <v>546</v>
@@ -12428,10 +12443,10 @@
         <v>133</v>
       </c>
       <c r="G385" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H385" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I385" s="12">
         <v>63</v>
@@ -12442,7 +12457,7 @@
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C386" s="12" t="s">
         <v>548</v>
@@ -12454,10 +12469,10 @@
         <v>136</v>
       </c>
       <c r="G386" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H386" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I386" s="12">
         <v>64</v>
@@ -12468,10 +12483,10 @@
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C387" s="12" t="s">
-        <v>118</v>
+        <v>600</v>
       </c>
       <c r="D387" s="12" t="s">
         <v>149</v>
@@ -12480,21 +12495,21 @@
         <v>136</v>
       </c>
       <c r="G387" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H387" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I387" s="12">
         <v>65</v>
       </c>
       <c r="M387" s="12" t="s">
-        <v>152</v>
+        <v>260</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C388" s="12" t="s">
         <v>549</v>
@@ -12506,10 +12521,10 @@
         <v>136</v>
       </c>
       <c r="G388" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H388" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I388" s="12">
         <v>66</v>
@@ -12520,7 +12535,7 @@
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C389" s="12" t="s">
         <v>550</v>
@@ -12532,10 +12547,10 @@
         <v>136</v>
       </c>
       <c r="G389" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H389" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I389" s="12">
         <v>67</v>
@@ -12546,7 +12561,7 @@
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C390" s="12" t="s">
         <v>551</v>
@@ -12558,10 +12573,10 @@
         <v>136</v>
       </c>
       <c r="G390" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H390" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I390" s="12">
         <v>68</v>
@@ -12572,7 +12587,7 @@
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C391" s="12" t="s">
         <v>552</v>
@@ -12584,10 +12599,10 @@
         <v>137</v>
       </c>
       <c r="G391" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H391" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I391" s="12">
         <v>69</v>
@@ -12598,10 +12613,10 @@
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C392" s="12" t="s">
-        <v>123</v>
+        <v>599</v>
       </c>
       <c r="D392" s="12" t="s">
         <v>149</v>
@@ -12610,21 +12625,21 @@
         <v>137</v>
       </c>
       <c r="G392" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H392" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I392" s="12">
         <v>70</v>
       </c>
       <c r="M392" s="12" t="s">
-        <v>152</v>
+        <v>260</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C393" s="12" t="s">
         <v>553</v>
@@ -12636,10 +12651,10 @@
         <v>137</v>
       </c>
       <c r="G393" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H393" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I393" s="12">
         <v>71</v>
@@ -12650,7 +12665,7 @@
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C394" s="12" t="s">
         <v>554</v>
@@ -12662,10 +12677,10 @@
         <v>137</v>
       </c>
       <c r="G394" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H394" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I394" s="12">
         <v>73</v>
@@ -12676,7 +12691,7 @@
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C395" s="12" t="s">
         <v>555</v>
@@ -12688,10 +12703,10 @@
         <v>137</v>
       </c>
       <c r="G395" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H395" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I395" s="12">
         <v>75</v>
@@ -12702,7 +12717,7 @@
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C396" s="12" t="s">
         <v>556</v>
@@ -12714,10 +12729,10 @@
         <v>138</v>
       </c>
       <c r="G396" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H396" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I396" s="12">
         <v>77</v>
@@ -12728,10 +12743,10 @@
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C397" s="12" t="s">
-        <v>128</v>
+        <v>598</v>
       </c>
       <c r="D397" s="12" t="s">
         <v>149</v>
@@ -12740,21 +12755,21 @@
         <v>138</v>
       </c>
       <c r="G397" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H397" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I397" s="12">
         <v>79</v>
       </c>
       <c r="M397" s="12" t="s">
-        <v>152</v>
+        <v>260</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C398" s="12" t="s">
         <v>557</v>
@@ -12766,10 +12781,10 @@
         <v>138</v>
       </c>
       <c r="G398" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H398" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I398" s="12">
         <v>81</v>
@@ -12780,7 +12795,7 @@
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C399" s="12" t="s">
         <v>558</v>
@@ -12792,10 +12807,10 @@
         <v>138</v>
       </c>
       <c r="G399" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H399" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I399" s="12">
         <v>82</v>
@@ -12806,7 +12821,7 @@
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C400" s="12" t="s">
         <v>559</v>
@@ -12818,10 +12833,10 @@
         <v>138</v>
       </c>
       <c r="G400" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H400" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I400" s="12">
         <v>84</v>
@@ -12832,7 +12847,7 @@
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C401" s="12" t="s">
         <v>560</v>
@@ -12844,10 +12859,10 @@
         <v>139</v>
       </c>
       <c r="G401" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H401" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I401" s="12">
         <v>85</v>
@@ -12858,10 +12873,10 @@
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C402" s="12" t="s">
-        <v>561</v>
+        <v>603</v>
       </c>
       <c r="D402" s="12" t="s">
         <v>149</v>
@@ -12870,24 +12885,24 @@
         <v>139</v>
       </c>
       <c r="G402" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H402" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I402" s="12">
         <v>86</v>
       </c>
       <c r="M402" s="12" t="s">
-        <v>152</v>
+        <v>260</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C403" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D403" s="12" t="s">
         <v>543</v>
@@ -12896,10 +12911,10 @@
         <v>139</v>
       </c>
       <c r="G403" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H403" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I403" s="12">
         <v>87</v>
@@ -12910,10 +12925,10 @@
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C404" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D404" s="12" t="s">
         <v>545</v>
@@ -12922,10 +12937,10 @@
         <v>139</v>
       </c>
       <c r="G404" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H404" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I404" s="12">
         <v>88</v>
@@ -12936,10 +12951,10 @@
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C405" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D405" s="12" t="s">
         <v>547</v>
@@ -12948,10 +12963,10 @@
         <v>139</v>
       </c>
       <c r="G405" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H405" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I405" s="12">
         <v>89</v>
@@ -12962,10 +12977,10 @@
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C406" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D406" s="12" t="s">
         <v>140</v>
@@ -12974,10 +12989,10 @@
         <v>133</v>
       </c>
       <c r="G406" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H406" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I406" s="12">
         <v>90</v>
@@ -12988,10 +13003,10 @@
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C407" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D407" s="12" t="s">
         <v>141</v>
@@ -13000,10 +13015,10 @@
         <v>133</v>
       </c>
       <c r="G407" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H407" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I407" s="12">
         <v>91</v>
@@ -13014,10 +13029,10 @@
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C408" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D408" s="12" t="s">
         <v>140</v>
@@ -13026,10 +13041,10 @@
         <v>136</v>
       </c>
       <c r="G408" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H408" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I408" s="12">
         <v>92</v>
@@ -13040,10 +13055,10 @@
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C409" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D409" s="12" t="s">
         <v>141</v>
@@ -13052,10 +13067,10 @@
         <v>136</v>
       </c>
       <c r="G409" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H409" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I409" s="12">
         <v>93</v>
@@ -13066,10 +13081,10 @@
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C410" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D410" s="12" t="s">
         <v>140</v>
@@ -13078,10 +13093,10 @@
         <v>137</v>
       </c>
       <c r="G410" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H410" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I410" s="12">
         <v>94</v>
@@ -13092,10 +13107,10 @@
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C411" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D411" s="12" t="s">
         <v>141</v>
@@ -13104,10 +13119,10 @@
         <v>137</v>
       </c>
       <c r="G411" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H411" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I411" s="12">
         <v>95</v>
@@ -13118,10 +13133,10 @@
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C412" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D412" s="12" t="s">
         <v>140</v>
@@ -13130,10 +13145,10 @@
         <v>138</v>
       </c>
       <c r="G412" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H412" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I412" s="12">
         <v>96</v>
@@ -13144,10 +13159,10 @@
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C413" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D413" s="12" t="s">
         <v>141</v>
@@ -13156,10 +13171,10 @@
         <v>138</v>
       </c>
       <c r="G413" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H413" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I413" s="12">
         <v>97</v>
@@ -13170,10 +13185,10 @@
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C414" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D414" s="12" t="s">
         <v>140</v>
@@ -13182,10 +13197,10 @@
         <v>139</v>
       </c>
       <c r="G414" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H414" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I414" s="12">
         <v>98</v>
@@ -13196,10 +13211,10 @@
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C415" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D415" s="12" t="s">
         <v>141</v>
@@ -13208,10 +13223,10 @@
         <v>139</v>
       </c>
       <c r="G415" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H415" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I415" s="12">
         <v>99</v>
@@ -13222,10 +13237,10 @@
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A416" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C416" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D416" s="12" t="s">
         <v>143</v>
@@ -13234,10 +13249,10 @@
         <v>139</v>
       </c>
       <c r="G416" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H416" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I416" s="12">
         <v>32</v>
@@ -13248,10 +13263,10 @@
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A417" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C417" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D417" s="12" t="s">
         <v>258</v>
@@ -13260,10 +13275,10 @@
         <v>139</v>
       </c>
       <c r="G417" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H417" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I417" s="12">
         <v>35</v>
@@ -13274,10 +13289,10 @@
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C418" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D418" s="12" t="s">
         <v>149</v>
@@ -13286,10 +13301,10 @@
         <v>133</v>
       </c>
       <c r="G418" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H418" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I418" s="12">
         <v>1</v>
@@ -13300,22 +13315,22 @@
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C419" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="D419" s="12" t="s">
         <v>579</v>
-      </c>
-      <c r="D419" s="12" t="s">
-        <v>580</v>
       </c>
       <c r="E419" s="12" t="s">
         <v>133</v>
       </c>
       <c r="G419" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H419" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I419" s="12">
         <v>2</v>
@@ -13326,22 +13341,22 @@
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C420" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="D420" s="12" t="s">
         <v>581</v>
-      </c>
-      <c r="D420" s="12" t="s">
-        <v>582</v>
       </c>
       <c r="E420" s="12" t="s">
         <v>133</v>
       </c>
       <c r="G420" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H420" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I420" s="12">
         <v>3</v>
@@ -13352,10 +13367,10 @@
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C421" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D421" s="12" t="s">
         <v>149</v>
@@ -13364,10 +13379,10 @@
         <v>136</v>
       </c>
       <c r="G421" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H421" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I421" s="12">
         <v>4</v>
@@ -13378,22 +13393,22 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C422" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D422" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E422" s="12" t="s">
         <v>136</v>
       </c>
       <c r="G422" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H422" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I422" s="12">
         <v>5</v>
@@ -13404,22 +13419,22 @@
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C423" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D423" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E423" s="12" t="s">
         <v>136</v>
       </c>
       <c r="G423" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H423" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I423" s="12">
         <v>6</v>
@@ -13430,10 +13445,10 @@
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C424" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D424" s="12" t="s">
         <v>149</v>
@@ -13442,10 +13457,10 @@
         <v>137</v>
       </c>
       <c r="G424" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H424" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I424" s="12">
         <v>7</v>
@@ -13456,22 +13471,22 @@
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C425" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D425" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E425" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G425" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H425" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I425" s="12">
         <v>8</v>
@@ -13482,22 +13497,22 @@
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A426" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C426" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D426" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E426" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G426" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H426" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I426" s="12">
         <v>9</v>
@@ -13508,10 +13523,10 @@
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C427" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D427" s="12" t="s">
         <v>149</v>
@@ -13520,10 +13535,10 @@
         <v>138</v>
       </c>
       <c r="G427" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H427" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I427" s="12">
         <v>10</v>
@@ -13534,22 +13549,22 @@
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A428" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C428" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D428" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E428" s="12" t="s">
         <v>138</v>
       </c>
       <c r="G428" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H428" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I428" s="12">
         <v>12</v>
@@ -13560,22 +13575,22 @@
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A429" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C429" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D429" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E429" s="12" t="s">
         <v>138</v>
       </c>
       <c r="G429" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H429" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I429" s="12">
         <v>13</v>
@@ -13586,10 +13601,10 @@
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A430" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C430" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D430" s="12" t="s">
         <v>149</v>
@@ -13598,10 +13613,10 @@
         <v>139</v>
       </c>
       <c r="G430" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H430" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I430" s="12">
         <v>14</v>
@@ -13612,22 +13627,22 @@
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A431" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C431" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D431" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E431" s="12" t="s">
         <v>139</v>
       </c>
       <c r="G431" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H431" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I431" s="12">
         <v>15</v>
@@ -13638,22 +13653,22 @@
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A432" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C432" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D432" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E432" s="12" t="s">
         <v>139</v>
       </c>
       <c r="G432" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H432" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I432" s="12">
         <v>16</v>
@@ -14173,40 +14188,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <muSite xmlns="93bc773c-cd82-4137-9106-d84709ea0e9f" xsi:nil="true"/>
-    <_dlc_DocId xmlns="93bc773c-cd82-4137-9106-d84709ea0e9f">65UW2XN7XCTN-283864126-186765</_dlc_DocId>
-    <muLibrary xmlns="93bc773c-cd82-4137-9106-d84709ea0e9f" xsi:nil="true"/>
-    <_dlc_DocIdUrl xmlns="93bc773c-cd82-4137-9106-d84709ea0e9f">
-      <Url>https://murdochuniversity.sharepoint.com/sites/Research_ANPC/_layouts/15/DocIdRedir.aspx?ID=65UW2XN7XCTN-283864126-186765</Url>
-      <Description>65UW2XN7XCTN-283864126-186765</Description>
-    </_dlc_DocIdUrl>
-    <SharedWithUsers xmlns="93bc773c-cd82-4137-9106-d84709ea0e9f">
-      <UserInfo>
-        <DisplayName>Torben Kimhofer</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="61ce2793-8f1c-4216-9274-30b9182df788">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="58ca0ab7-cbc6-49ae-8f7a-f9a779e16d08" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -14256,6 +14237,40 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <muSite xmlns="93bc773c-cd82-4137-9106-d84709ea0e9f" xsi:nil="true"/>
+    <_dlc_DocId xmlns="93bc773c-cd82-4137-9106-d84709ea0e9f">65UW2XN7XCTN-283864126-186765</_dlc_DocId>
+    <muLibrary xmlns="93bc773c-cd82-4137-9106-d84709ea0e9f" xsi:nil="true"/>
+    <_dlc_DocIdUrl xmlns="93bc773c-cd82-4137-9106-d84709ea0e9f">
+      <Url>https://murdochuniversity.sharepoint.com/sites/Research_ANPC/_layouts/15/DocIdRedir.aspx?ID=65UW2XN7XCTN-283864126-186765</Url>
+      <Description>65UW2XN7XCTN-283864126-186765</Description>
+    </_dlc_DocIdUrl>
+    <SharedWithUsers xmlns="93bc773c-cd82-4137-9106-d84709ea0e9f">
+      <UserInfo>
+        <DisplayName>Torben Kimhofer</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="61ce2793-8f1c-4216-9274-30b9182df788">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="58ca0ab7-cbc6-49ae-8f7a-f9a779e16d08" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7A47728-8EE5-41F1-8746-8102E1ECA67C}">
   <ds:schemaRefs>
@@ -14277,13 +14292,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31A28EFD-4464-49D7-B5DC-6AE8FB8075F6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDB354AB-16C6-4F6A-9291-25BEAA7B4976}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="93bc773c-cd82-4137-9106-d84709ea0e9f"/>
-    <ds:schemaRef ds:uri="61ce2793-8f1c-4216-9274-30b9182df788"/>
-    <ds:schemaRef ds:uri="58ca0ab7-cbc6-49ae-8f7a-f9a779e16d08"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14297,9 +14308,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDB354AB-16C6-4F6A-9291-25BEAA7B4976}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31A28EFD-4464-49D7-B5DC-6AE8FB8075F6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="93bc773c-cd82-4137-9106-d84709ea0e9f"/>
+    <ds:schemaRef ds:uri="61ce2793-8f1c-4216-9274-30b9182df788"/>
+    <ds:schemaRef ds:uri="58ca0ab7-cbc6-49ae-8f7a-f9a779e16d08"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>